--- a/Tables/Charge_normalisation.xlsx
+++ b/Tables/Charge_normalisation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11015"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10210"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexanderbackis/Documents/MultiGridAnalysisMesytec/Tables/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexanderbackis/Documents/MultiGridAnalysis/Tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7844EFB-7C47-CE4F-BF2A-99ED02800F3B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{688C33FE-BEE8-3749-A5DF-3E4EC202F226}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="9820" windowWidth="28800" windowHeight="16320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -712,8 +712,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="H62" sqref="H62"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
